--- a/10 exercicios/relatorio.xlsx
+++ b/10 exercicios/relatorio.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,46 +435,238 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Preço</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>maça</t>
+          <t>Melancia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>800</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>limão</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beterraba</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tangerina</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Melancia</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>limão</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>beterraba</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mamão</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mexerica</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tangerina</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/10 exercicios/relatorio.xlsx
+++ b/10 exercicios/relatorio.xlsx
@@ -480,40 +480,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>limão</t>
+          <t>beterraba</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beterraba</t>
+          <t>tangerina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tangerina</t>
+          <t>limão</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>limão</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10 exercicios/relatorio.xlsx
+++ b/10 exercicios/relatorio.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Resumo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,7 +26,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -63,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,13 +436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -458,7 +468,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -467,53 +477,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Melancia</t>
+          <t>limão</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>beterraba</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tangerina</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>limão</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -527,13 +498,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -683,6 +654,86 @@
       </c>
       <c r="D10" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pepino</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>limão</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>maracuja</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>limão</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
